--- a/result.xlsx
+++ b/result.xlsx
@@ -28,169 +28,169 @@
     <t>inflamatory</t>
   </si>
   <si>
+    <t>sigificant</t>
+  </si>
+  <si>
     <t>comon</t>
   </si>
   <si>
-    <t>sigificant</t>
+    <t>indeviduals</t>
+  </si>
+  <si>
+    <t>recurrant</t>
+  </si>
+  <si>
+    <t>biologic</t>
   </si>
   <si>
     <t>andor</t>
   </si>
   <si>
-    <t>indeviduals</t>
-  </si>
-  <si>
-    <t>recurrant</t>
-  </si>
-  <si>
-    <t>biologic</t>
+    <t>welldescribed</t>
+  </si>
+  <si>
+    <t>stresors</t>
+  </si>
+  <si>
+    <t>progrssive</t>
+  </si>
+  <si>
+    <t>sape</t>
+  </si>
+  <si>
+    <t>systemmediated</t>
   </si>
   <si>
     <t>pathologic</t>
   </si>
   <si>
+    <t>sequance</t>
+  </si>
+  <si>
+    <t>stges</t>
+  </si>
+  <si>
+    <t>calcifications</t>
+  </si>
+  <si>
     <t>desruction</t>
   </si>
   <si>
-    <t>sequance</t>
-  </si>
-  <si>
-    <t>systemmediated</t>
-  </si>
-  <si>
     <t>earlycp</t>
   </si>
   <si>
+    <t>wellestablished</t>
+  </si>
+  <si>
     <t>fibroinflammatory</t>
   </si>
   <si>
-    <t>progrssive</t>
-  </si>
-  <si>
-    <t>welldescribed</t>
-  </si>
-  <si>
-    <t>calcifications</t>
-  </si>
-  <si>
-    <t>wellestablished</t>
-  </si>
-  <si>
-    <t>stges</t>
-  </si>
-  <si>
-    <t>stresors</t>
-  </si>
-  <si>
-    <t>sape</t>
+    <t>diseasecausing</t>
+  </si>
+  <si>
+    <t>pni</t>
   </si>
   <si>
     <t>prss</t>
   </si>
   <si>
-    <t>pni</t>
+    <t>mutetion</t>
+  </si>
+  <si>
+    <t>prh</t>
   </si>
   <si>
     <t>inheited</t>
   </si>
   <si>
-    <t>diseasecausing</t>
-  </si>
-  <si>
-    <t>mutetion</t>
-  </si>
-  <si>
-    <t>prh</t>
+    <t>expeted</t>
+  </si>
+  <si>
+    <t>rfer</t>
+  </si>
+  <si>
+    <t>cuse</t>
   </si>
   <si>
     <t>greaer</t>
   </si>
   <si>
-    <t>rfer</t>
-  </si>
-  <si>
-    <t>cuse</t>
-  </si>
-  <si>
-    <t>expeted</t>
-  </si>
-  <si>
     <t>inflammatory</t>
   </si>
   <si>
+    <t>significant</t>
+  </si>
+  <si>
     <t>common</t>
   </si>
   <si>
-    <t>significant</t>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>recurrent</t>
+  </si>
+  <si>
+    <t>biological</t>
   </si>
   <si>
     <t>and/or</t>
   </si>
   <si>
-    <t>individuals</t>
-  </si>
-  <si>
-    <t>recurrent</t>
-  </si>
-  <si>
-    <t>biological</t>
+    <t>stressors</t>
+  </si>
+  <si>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
   <si>
     <t>pathology</t>
   </si>
   <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>stages</t>
+  </si>
+  <si>
+    <t>falsifications</t>
+  </si>
+  <si>
     <t>destruction</t>
   </si>
   <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>early</t>
   </si>
   <si>
-    <t>progressive</t>
-  </si>
-  <si>
-    <t>falsifications</t>
-  </si>
-  <si>
     <t>well-established</t>
   </si>
   <si>
-    <t>stages</t>
-  </si>
-  <si>
-    <t>stressors</t>
-  </si>
-  <si>
-    <t>same</t>
+    <t>pin</t>
   </si>
   <si>
     <t>press</t>
   </si>
   <si>
-    <t>pin</t>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>ph</t>
   </si>
   <si>
     <t>inherited</t>
   </si>
   <si>
-    <t>mutation</t>
-  </si>
-  <si>
-    <t>ph</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>greater</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>expected</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -703,10 +703,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>43</v>
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -736,10 +736,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -747,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -783,7 +783,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -794,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/result.xlsx
+++ b/result.xlsx
@@ -25,172 +25,172 @@
     <t>correct_word</t>
   </si>
   <si>
+    <t>sigificant</t>
+  </si>
+  <si>
     <t>inflamatory</t>
   </si>
   <si>
-    <t>sigificant</t>
-  </si>
-  <si>
     <t>comon</t>
   </si>
   <si>
     <t>indeviduals</t>
   </si>
   <si>
+    <t>andor</t>
+  </si>
+  <si>
+    <t>biologic</t>
+  </si>
+  <si>
     <t>recurrant</t>
   </si>
   <si>
-    <t>biologic</t>
-  </si>
-  <si>
-    <t>andor</t>
+    <t>progrssive</t>
+  </si>
+  <si>
+    <t>systemmediated</t>
+  </si>
+  <si>
+    <t>sequance</t>
+  </si>
+  <si>
+    <t>wellestablished</t>
+  </si>
+  <si>
+    <t>stresors</t>
+  </si>
+  <si>
+    <t>calcifications</t>
+  </si>
+  <si>
+    <t>earlycp</t>
   </si>
   <si>
     <t>welldescribed</t>
   </si>
   <si>
-    <t>stresors</t>
-  </si>
-  <si>
-    <t>progrssive</t>
-  </si>
-  <si>
     <t>sape</t>
   </si>
   <si>
-    <t>systemmediated</t>
+    <t>fibroinflammatory</t>
+  </si>
+  <si>
+    <t>stges</t>
+  </si>
+  <si>
+    <t>desruction</t>
   </si>
   <si>
     <t>pathologic</t>
   </si>
   <si>
-    <t>sequance</t>
-  </si>
-  <si>
-    <t>stges</t>
-  </si>
-  <si>
-    <t>calcifications</t>
-  </si>
-  <si>
-    <t>desruction</t>
-  </si>
-  <si>
-    <t>earlycp</t>
-  </si>
-  <si>
-    <t>wellestablished</t>
-  </si>
-  <si>
-    <t>fibroinflammatory</t>
+    <t>prh</t>
+  </si>
+  <si>
+    <t>inheited</t>
+  </si>
+  <si>
+    <t>pni</t>
+  </si>
+  <si>
+    <t>mutetion</t>
   </si>
   <si>
     <t>diseasecausing</t>
   </si>
   <si>
-    <t>pni</t>
-  </si>
-  <si>
     <t>prss</t>
   </si>
   <si>
-    <t>mutetion</t>
-  </si>
-  <si>
-    <t>prh</t>
-  </si>
-  <si>
-    <t>inheited</t>
+    <t>rfer</t>
+  </si>
+  <si>
+    <t>greaer</t>
+  </si>
+  <si>
+    <t>cuse</t>
   </si>
   <si>
     <t>expeted</t>
   </si>
   <si>
-    <t>rfer</t>
-  </si>
-  <si>
-    <t>cuse</t>
-  </si>
-  <si>
-    <t>greaer</t>
+    <t>significant</t>
   </si>
   <si>
     <t>inflammatory</t>
   </si>
   <si>
-    <t>significant</t>
-  </si>
-  <si>
     <t>common</t>
   </si>
   <si>
     <t>individuals</t>
   </si>
   <si>
+    <t>and/or</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
     <t>recurrent</t>
   </si>
   <si>
-    <t>biological</t>
-  </si>
-  <si>
-    <t>and/or</t>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>well-established</t>
   </si>
   <si>
     <t>stressors</t>
   </si>
   <si>
-    <t>progressive</t>
+    <t>falsifications</t>
+  </si>
+  <si>
+    <t>early</t>
   </si>
   <si>
     <t>same</t>
   </si>
   <si>
+    <t>stages</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
     <t>pathology</t>
   </si>
   <si>
-    <t>sequence</t>
-  </si>
-  <si>
-    <t>stages</t>
-  </si>
-  <si>
-    <t>falsifications</t>
-  </si>
-  <si>
-    <t>destruction</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>well-established</t>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>inherited</t>
   </si>
   <si>
     <t>pin</t>
   </si>
   <si>
+    <t>mutation</t>
+  </si>
+  <si>
     <t>press</t>
   </si>
   <si>
-    <t>mutation</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>inherited</t>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>expected</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>greater</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -706,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -739,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -761,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>48</v>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>49</v>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">

--- a/result.xlsx
+++ b/result.xlsx
@@ -25,94 +25,97 @@
     <t>correct_word</t>
   </si>
   <si>
+    <t>comon</t>
+  </si>
+  <si>
     <t>sigificant</t>
   </si>
   <si>
     <t>inflamatory</t>
   </si>
   <si>
-    <t>comon</t>
+    <t>andor</t>
+  </si>
+  <si>
+    <t>biologic</t>
+  </si>
+  <si>
+    <t>recurrant</t>
   </si>
   <si>
     <t>indeviduals</t>
   </si>
   <si>
-    <t>andor</t>
-  </si>
-  <si>
-    <t>biologic</t>
-  </si>
-  <si>
-    <t>recurrant</t>
-  </si>
-  <si>
     <t>progrssive</t>
   </si>
   <si>
+    <t>welldescribed</t>
+  </si>
+  <si>
+    <t>earlycp</t>
+  </si>
+  <si>
+    <t>pathologic</t>
+  </si>
+  <si>
+    <t>stges</t>
+  </si>
+  <si>
+    <t>desruction</t>
+  </si>
+  <si>
     <t>systemmediated</t>
   </si>
   <si>
+    <t>fibroinflammatory</t>
+  </si>
+  <si>
+    <t>sape</t>
+  </si>
+  <si>
     <t>sequance</t>
   </si>
   <si>
+    <t>calcifications</t>
+  </si>
+  <si>
+    <t>stresors</t>
+  </si>
+  <si>
     <t>wellestablished</t>
   </si>
   <si>
-    <t>stresors</t>
-  </si>
-  <si>
-    <t>calcifications</t>
-  </si>
-  <si>
-    <t>earlycp</t>
-  </si>
-  <si>
-    <t>welldescribed</t>
-  </si>
-  <si>
-    <t>sape</t>
-  </si>
-  <si>
-    <t>fibroinflammatory</t>
-  </si>
-  <si>
-    <t>stges</t>
-  </si>
-  <si>
-    <t>desruction</t>
-  </si>
-  <si>
-    <t>pathologic</t>
+    <t>pni</t>
+  </si>
+  <si>
+    <t>mutetion</t>
+  </si>
+  <si>
+    <t>diseasecausing</t>
   </si>
   <si>
     <t>prh</t>
   </si>
   <si>
+    <t>prss</t>
+  </si>
+  <si>
     <t>inheited</t>
   </si>
   <si>
-    <t>pni</t>
-  </si>
-  <si>
-    <t>mutetion</t>
-  </si>
-  <si>
-    <t>diseasecausing</t>
-  </si>
-  <si>
-    <t>prss</t>
-  </si>
-  <si>
     <t>rfer</t>
   </si>
   <si>
+    <t>expeted</t>
+  </si>
+  <si>
+    <t>cuse</t>
+  </si>
+  <si>
     <t>greaer</t>
   </si>
   <si>
-    <t>cuse</t>
-  </si>
-  <si>
-    <t>expeted</t>
+    <t>common</t>
   </si>
   <si>
     <t>significant</t>
@@ -121,76 +124,73 @@
     <t>inflammatory</t>
   </si>
   <si>
-    <t>common</t>
+    <t>and/or</t>
+  </si>
+  <si>
+    <t>biological</t>
+  </si>
+  <si>
+    <t>recurrent</t>
   </si>
   <si>
     <t>individuals</t>
   </si>
   <si>
-    <t>and/or</t>
-  </si>
-  <si>
-    <t>biological</t>
-  </si>
-  <si>
-    <t>recurrent</t>
-  </si>
-  <si>
     <t>progressive</t>
   </si>
   <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>pathology</t>
+  </si>
+  <si>
+    <t>stages</t>
+  </si>
+  <si>
+    <t>destruction</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
     <t>sequence</t>
   </si>
   <si>
+    <t>falsifications</t>
+  </si>
+  <si>
+    <t>stressors</t>
+  </si>
+  <si>
     <t>well-established</t>
   </si>
   <si>
-    <t>stressors</t>
-  </si>
-  <si>
-    <t>falsifications</t>
-  </si>
-  <si>
-    <t>early</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>stages</t>
-  </si>
-  <si>
-    <t>destruction</t>
-  </si>
-  <si>
-    <t>pathology</t>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>mutation</t>
   </si>
   <si>
     <t>ph</t>
   </si>
   <si>
+    <t>press</t>
+  </si>
+  <si>
     <t>inherited</t>
   </si>
   <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>mutation</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
     <t>refer</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>greater</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>expected</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -750,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -761,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,7 +860,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
